--- a/tests/fixtures/orderforms/1508.33.rnafusion.xlsx
+++ b/tests/fixtures/orderforms/1508.33.rnafusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D36F59-A83D-DB48-88A4-91C1137D08DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C0D395-59B8-824B-914D-BE2C1F77D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5597,7 +5597,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5607,57 +5607,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5934,8 +5934,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15:AL16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.rnafusion.xlsx
+++ b/tests/fixtures/orderforms/1508.33.rnafusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18C0D395-59B8-824B-914D-BE2C1F77D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7757DD03-DFEC-8047-934F-6CF65403DF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="855">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3697,6 +3697,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4469,7 +4472,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4938,6 +4941,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5934,8 +5940,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12321,9 +12327,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13384,8 +13388,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="176" t="s">
+        <v>854</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13456,9 +13460,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -72325,7 +72327,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jO9by2cl03okjZUKVIogefth1YOL4GX1FdYDpLDFh56hrghQPyBteaESf+Qd1DL/s9YoIydq5ow+Up1Ql3vAtA==" saltValue="YV32romVB1YYN2ScC9SNTg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>

--- a/tests/fixtures/orderforms/1508.33.rnafusion.xlsx
+++ b/tests/fixtures/orderforms/1508.33.rnafusion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DF3CCD-5061-054D-A922-A8095F3D23B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69698385-4ED5-F847-BEFF-FF86DF14147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34120" yWindow="-12200" windowWidth="45660" windowHeight="24420" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="851">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3306,403 +3306,388 @@
     <t>This information is required for WGS, metagenome, panel- and exome analysis</t>
   </si>
   <si>
-    <t>miprnasample1</t>
-  </si>
-  <si>
-    <t>miprnacase1</t>
-  </si>
-  <si>
     <t>miprnasubject1</t>
   </si>
   <si>
-    <t>miprnasample2</t>
-  </si>
-  <si>
-    <t>miprnacase41</t>
-  </si>
-  <si>
-    <t>RNAPOAR075</t>
-  </si>
-  <si>
     <t>miprnasubject2</t>
   </si>
   <si>
-    <t>miprnasample3</t>
-  </si>
-  <si>
-    <t>miprnacase42</t>
-  </si>
-  <si>
     <t>miprnasubject3</t>
   </si>
   <si>
-    <t>miprnasample4</t>
-  </si>
-  <si>
-    <t>miprnacase2</t>
-  </si>
-  <si>
-    <t>RNLPOAR050</t>
-  </si>
-  <si>
     <t>miprnasubject4</t>
   </si>
   <si>
-    <t>miprnasample5</t>
-  </si>
-  <si>
-    <t>miprnacase3</t>
-  </si>
-  <si>
-    <t>RNLPOAR075</t>
-  </si>
-  <si>
     <t>miprnasubject5</t>
   </si>
   <si>
-    <t>miprnasample6</t>
-  </si>
-  <si>
-    <t>miprnacase4</t>
-  </si>
-  <si>
-    <t>RNLPOAR100</t>
-  </si>
-  <si>
     <t>miprnasubject6</t>
   </si>
   <si>
-    <t>miprnasample7</t>
-  </si>
-  <si>
-    <t>miprnacase5</t>
-  </si>
-  <si>
     <t>miprnasubject7</t>
   </si>
   <si>
-    <t>miprnasample8</t>
-  </si>
-  <si>
-    <t>miprnacase6</t>
-  </si>
-  <si>
     <t>miprnasubject8</t>
   </si>
   <si>
-    <t>miprnasample9</t>
-  </si>
-  <si>
-    <t>miprnacase7</t>
-  </si>
-  <si>
     <t>miprnasubject9</t>
   </si>
   <si>
-    <t>miprnasample10</t>
-  </si>
-  <si>
-    <t>miprnacase8</t>
-  </si>
-  <si>
     <t>miprnasubject10</t>
   </si>
   <si>
-    <t>miprnasample11</t>
-  </si>
-  <si>
-    <t>miprnacase9</t>
-  </si>
-  <si>
     <t>miprnasubject11</t>
   </si>
   <si>
-    <t>miprnasample12</t>
-  </si>
-  <si>
-    <t>miprnacase10</t>
-  </si>
-  <si>
     <t>miprnasubject12</t>
   </si>
   <si>
-    <t>miprnasample13</t>
-  </si>
-  <si>
-    <t>miprnacase11</t>
-  </si>
-  <si>
     <t>miprnasubject13</t>
   </si>
   <si>
-    <t>miprnasample14</t>
-  </si>
-  <si>
-    <t>miprnacase12</t>
-  </si>
-  <si>
     <t>miprnasubject14</t>
   </si>
   <si>
-    <t>miprnasample15</t>
-  </si>
-  <si>
-    <t>miprnacase13</t>
-  </si>
-  <si>
     <t>miprnasubject15</t>
   </si>
   <si>
-    <t>miprnasample16</t>
-  </si>
-  <si>
-    <t>miprnacase14</t>
-  </si>
-  <si>
     <t>miprnasubject16</t>
   </si>
   <si>
-    <t>miprnasample17</t>
-  </si>
-  <si>
-    <t>miprnacase15</t>
-  </si>
-  <si>
     <t>miprnasubject17</t>
   </si>
   <si>
-    <t>miprnasample18</t>
-  </si>
-  <si>
-    <t>miprnacase16</t>
-  </si>
-  <si>
     <t>miprnasubject18</t>
   </si>
   <si>
-    <t>miprnasample19</t>
-  </si>
-  <si>
-    <t>miprnacase17</t>
-  </si>
-  <si>
     <t>miprnasubject19</t>
   </si>
   <si>
-    <t>miprnasample20</t>
-  </si>
-  <si>
-    <t>miprnacase18</t>
-  </si>
-  <si>
     <t>miprnasubject20</t>
   </si>
   <si>
-    <t>miprnasample21</t>
-  </si>
-  <si>
-    <t>miprnacase19</t>
-  </si>
-  <si>
     <t>miprnasubject21</t>
   </si>
   <si>
-    <t>miprnasample22</t>
-  </si>
-  <si>
-    <t>miprnacase20</t>
-  </si>
-  <si>
     <t>miprnasubject22</t>
   </si>
   <si>
-    <t>miprnasample23</t>
-  </si>
-  <si>
-    <t>miprnacase21</t>
-  </si>
-  <si>
     <t>miprnasubject23</t>
   </si>
   <si>
-    <t>miprnasample24</t>
-  </si>
-  <si>
-    <t>miprnacase22</t>
-  </si>
-  <si>
     <t>miprnasubject24</t>
   </si>
   <si>
-    <t>miprnasample25</t>
-  </si>
-  <si>
-    <t>miprnacase23</t>
-  </si>
-  <si>
     <t>miprnasubject25</t>
   </si>
   <si>
-    <t>miprnasample26</t>
-  </si>
-  <si>
-    <t>miprnacase24</t>
-  </si>
-  <si>
     <t>miprnasubject26</t>
   </si>
   <si>
-    <t>miprnasample27</t>
-  </si>
-  <si>
-    <t>miprnacase25</t>
-  </si>
-  <si>
     <t>miprnasubject27</t>
   </si>
   <si>
-    <t>miprnasample28</t>
-  </si>
-  <si>
-    <t>miprnacase26</t>
-  </si>
-  <si>
     <t>miprnasubject28</t>
   </si>
   <si>
-    <t>miprnasample29</t>
-  </si>
-  <si>
-    <t>miprnacase27</t>
-  </si>
-  <si>
     <t>miprnasubject29</t>
   </si>
   <si>
-    <t>miprnasample30</t>
-  </si>
-  <si>
-    <t>miprnacase28</t>
-  </si>
-  <si>
     <t>miprnasubject30</t>
   </si>
   <si>
-    <t>miprnasample31</t>
-  </si>
-  <si>
-    <t>miprnacase29</t>
-  </si>
-  <si>
     <t>miprnasubject31</t>
   </si>
   <si>
-    <t>miprnasample32</t>
-  </si>
-  <si>
-    <t>miprnacase30</t>
-  </si>
-  <si>
     <t>miprnasubject32</t>
   </si>
   <si>
-    <t>miprnasample33</t>
-  </si>
-  <si>
-    <t>miprnacase31</t>
-  </si>
-  <si>
     <t>miprnasubject33</t>
   </si>
   <si>
-    <t>miprnasample34</t>
-  </si>
-  <si>
-    <t>miprnacase32</t>
-  </si>
-  <si>
     <t>miprnasubject34</t>
   </si>
   <si>
-    <t>miprnasample35</t>
-  </si>
-  <si>
-    <t>miprnacase33</t>
-  </si>
-  <si>
     <t>miprnasubject35</t>
   </si>
   <si>
-    <t>miprnasample36</t>
-  </si>
-  <si>
-    <t>miprnacase34</t>
-  </si>
-  <si>
     <t>miprnasubject36</t>
   </si>
   <si>
-    <t>miprnasample37</t>
-  </si>
-  <si>
-    <t>miprnacase35</t>
-  </si>
-  <si>
     <t>miprnasubject37</t>
   </si>
   <si>
-    <t>miprnasample38</t>
-  </si>
-  <si>
-    <t>miprnacase36</t>
-  </si>
-  <si>
     <t>miprnasubject38</t>
   </si>
   <si>
-    <t>miprnasample39</t>
-  </si>
-  <si>
-    <t>miprnacase37</t>
-  </si>
-  <si>
     <t>miprnasubject39</t>
   </si>
   <si>
-    <t>miprnasample40</t>
-  </si>
-  <si>
-    <t>miprnacase38</t>
-  </si>
-  <si>
     <t>miprnasubject40</t>
   </si>
   <si>
-    <t>miprnasample41</t>
-  </si>
-  <si>
-    <t>miprnacase39</t>
-  </si>
-  <si>
     <t>miprnasubject41</t>
   </si>
   <si>
-    <t>miprnasample42</t>
-  </si>
-  <si>
-    <t>miprnacase40</t>
-  </si>
-  <si>
     <t>miprnasubject42</t>
   </si>
   <si>
     <t>plate1</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>rnafusionsample1</t>
+  </si>
+  <si>
+    <t>rnafusionsample2</t>
+  </si>
+  <si>
+    <t>rnafusionsample3</t>
+  </si>
+  <si>
+    <t>rnafusionsample4</t>
+  </si>
+  <si>
+    <t>rnafusionsample5</t>
+  </si>
+  <si>
+    <t>rnafusionsample6</t>
+  </si>
+  <si>
+    <t>rnafusionsample7</t>
+  </si>
+  <si>
+    <t>rnafusionsample8</t>
+  </si>
+  <si>
+    <t>rnafusionsample9</t>
+  </si>
+  <si>
+    <t>rnafusionsample10</t>
+  </si>
+  <si>
+    <t>rnafusionsample11</t>
+  </si>
+  <si>
+    <t>rnafusionsample12</t>
+  </si>
+  <si>
+    <t>rnafusionsample13</t>
+  </si>
+  <si>
+    <t>rnafusionsample14</t>
+  </si>
+  <si>
+    <t>rnafusionsample15</t>
+  </si>
+  <si>
+    <t>rnafusionsample16</t>
+  </si>
+  <si>
+    <t>rnafusionsample17</t>
+  </si>
+  <si>
+    <t>rnafusionsample18</t>
+  </si>
+  <si>
+    <t>rnafusionsample19</t>
+  </si>
+  <si>
+    <t>rnafusionsample20</t>
+  </si>
+  <si>
+    <t>rnafusionsample21</t>
+  </si>
+  <si>
+    <t>rnafusionsample22</t>
+  </si>
+  <si>
+    <t>rnafusionsample23</t>
+  </si>
+  <si>
+    <t>rnafusionsample24</t>
+  </si>
+  <si>
+    <t>rnafusionsample25</t>
+  </si>
+  <si>
+    <t>rnafusionsample26</t>
+  </si>
+  <si>
+    <t>rnafusionsample27</t>
+  </si>
+  <si>
+    <t>rnafusionsample28</t>
+  </si>
+  <si>
+    <t>rnafusionsample29</t>
+  </si>
+  <si>
+    <t>rnafusionsample30</t>
+  </si>
+  <si>
+    <t>rnafusionsample31</t>
+  </si>
+  <si>
+    <t>rnafusionsample32</t>
+  </si>
+  <si>
+    <t>rnafusionsample33</t>
+  </si>
+  <si>
+    <t>rnafusionsample34</t>
+  </si>
+  <si>
+    <t>rnafusionsample35</t>
+  </si>
+  <si>
+    <t>rnafusionsample36</t>
+  </si>
+  <si>
+    <t>rnafusionsample37</t>
+  </si>
+  <si>
+    <t>rnafusionsample38</t>
+  </si>
+  <si>
+    <t>rnafusionsample39</t>
+  </si>
+  <si>
+    <t>rnafusionsample40</t>
+  </si>
+  <si>
+    <t>rnafusionsample41</t>
+  </si>
+  <si>
+    <t>rnafusionsample42</t>
+  </si>
+  <si>
+    <t>rnafusioncase1</t>
+  </si>
+  <si>
+    <t>rnafusioncase2</t>
+  </si>
+  <si>
+    <t>rnafusioncase3</t>
+  </si>
+  <si>
+    <t>rnafusioncase4</t>
+  </si>
+  <si>
+    <t>rnafusioncase5</t>
+  </si>
+  <si>
+    <t>rnafusioncase6</t>
+  </si>
+  <si>
+    <t>rnafusioncase7</t>
+  </si>
+  <si>
+    <t>rnafusioncase8</t>
+  </si>
+  <si>
+    <t>rnafusioncase9</t>
+  </si>
+  <si>
+    <t>rnafusioncase10</t>
+  </si>
+  <si>
+    <t>rnafusioncase11</t>
+  </si>
+  <si>
+    <t>rnafusioncase12</t>
+  </si>
+  <si>
+    <t>rnafusioncase13</t>
+  </si>
+  <si>
+    <t>rnafusioncase14</t>
+  </si>
+  <si>
+    <t>rnafusioncase15</t>
+  </si>
+  <si>
+    <t>rnafusioncase16</t>
+  </si>
+  <si>
+    <t>rnafusioncase17</t>
+  </si>
+  <si>
+    <t>rnafusioncase18</t>
+  </si>
+  <si>
+    <t>rnafusioncase19</t>
+  </si>
+  <si>
+    <t>rnafusioncase20</t>
+  </si>
+  <si>
+    <t>rnafusioncase21</t>
+  </si>
+  <si>
+    <t>rnafusioncase22</t>
+  </si>
+  <si>
+    <t>rnafusioncase23</t>
+  </si>
+  <si>
+    <t>rnafusioncase24</t>
+  </si>
+  <si>
+    <t>rnafusioncase25</t>
+  </si>
+  <si>
+    <t>rnafusioncase26</t>
+  </si>
+  <si>
+    <t>rnafusioncase27</t>
+  </si>
+  <si>
+    <t>rnafusioncase28</t>
+  </si>
+  <si>
+    <t>rnafusioncase29</t>
+  </si>
+  <si>
+    <t>rnafusioncase30</t>
+  </si>
+  <si>
+    <t>rnafusioncase31</t>
+  </si>
+  <si>
+    <t>rnafusioncase32</t>
+  </si>
+  <si>
+    <t>rnafusioncase33</t>
+  </si>
+  <si>
+    <t>rnafusioncase34</t>
+  </si>
+  <si>
+    <t>rnafusioncase35</t>
+  </si>
+  <si>
+    <t>rnafusioncase36</t>
+  </si>
+  <si>
+    <t>rnafusioncase37</t>
+  </si>
+  <si>
+    <t>rnafusioncase38</t>
+  </si>
+  <si>
+    <t>rnafusioncase39</t>
+  </si>
+  <si>
+    <t>rnafusioncase40</t>
+  </si>
+  <si>
+    <t>rnafusioncase41</t>
+  </si>
+  <si>
+    <t>rnafusioncase42</t>
   </si>
 </sst>
 </file>
@@ -5938,8 +5923,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15:AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13625,7 +13610,7 @@
     </row>
     <row r="15" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="65" t="s">
-        <v>723</v>
+        <v>767</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>69</v>
@@ -13637,10 +13622,10 @@
         <v>516</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>724</v>
+        <v>809</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>212</v>
+        <v>491</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>68</v>
@@ -13661,14 +13646,14 @@
         <v>20</v>
       </c>
       <c r="M15" s="107" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="N15" s="84" t="s">
         <v>67</v>
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="70" t="s">
-        <v>853</v>
+        <v>765</v>
       </c>
       <c r="Q15" s="85" t="s">
         <v>75</v>
@@ -13684,32 +13669,18 @@
       <c r="Y15" s="72"/>
       <c r="Z15" s="87"/>
       <c r="AA15" s="74"/>
-      <c r="AB15" s="90">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="90">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="89" t="s">
-        <v>76</v>
-      </c>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="89"/>
       <c r="AE15" s="49"/>
       <c r="AF15" s="89"/>
       <c r="AG15" s="49"/>
-      <c r="AH15" s="83" t="s">
-        <v>495</v>
-      </c>
-      <c r="AI15" s="86">
-        <v>5</v>
-      </c>
-      <c r="AJ15" s="70" t="s">
-        <v>854</v>
-      </c>
-      <c r="AK15" s="88">
-        <v>10</v>
-      </c>
+      <c r="AH15" s="83"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="88"/>
       <c r="AL15" s="70" t="s">
-        <v>855</v>
+        <v>766</v>
       </c>
       <c r="AM15"/>
       <c r="AN15"/>
@@ -14704,7 +14675,7 @@
     </row>
     <row r="16" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="65" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="B16" s="66" t="s">
         <v>69</v>
@@ -14716,10 +14687,10 @@
         <v>516</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>727</v>
+        <v>810</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>79</v>
@@ -14740,7 +14711,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="107" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="N16" s="84" t="s">
         <v>77</v>
@@ -14761,15 +14732,11 @@
       <c r="AA16" s="74"/>
       <c r="AB16" s="90"/>
       <c r="AC16" s="90"/>
-      <c r="AD16" s="89" t="s">
-        <v>88</v>
-      </c>
+      <c r="AD16" s="89"/>
       <c r="AE16" s="49"/>
       <c r="AF16" s="89"/>
       <c r="AG16" s="49"/>
-      <c r="AH16" s="83" t="s">
-        <v>496</v>
-      </c>
+      <c r="AH16" s="83"/>
       <c r="AI16" s="86"/>
       <c r="AJ16" s="70"/>
       <c r="AK16" s="88"/>
@@ -15767,7 +15734,7 @@
     </row>
     <row r="17" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="65" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>69</v>
@@ -15779,10 +15746,10 @@
         <v>516</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>731</v>
+        <v>811</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>90</v>
@@ -15803,7 +15770,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="107" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="N17" s="84" t="s">
         <v>77</v>
@@ -16826,7 +16793,7 @@
     </row>
     <row r="18" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>69</v>
@@ -16838,10 +16805,10 @@
         <v>516</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>734</v>
+        <v>812</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>735</v>
+        <v>489</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>90</v>
@@ -16862,7 +16829,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="107" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="N18" s="84" t="s">
         <v>77</v>
@@ -17885,7 +17852,7 @@
     </row>
     <row r="19" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="65" t="s">
-        <v>737</v>
+        <v>771</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>69</v>
@@ -17897,10 +17864,10 @@
         <v>516</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>738</v>
+        <v>813</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>90</v>
@@ -17921,7 +17888,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="107" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="N19" s="84" t="s">
         <v>77</v>
@@ -18944,7 +18911,7 @@
     </row>
     <row r="20" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65" t="s">
-        <v>741</v>
+        <v>772</v>
       </c>
       <c r="B20" s="66" t="s">
         <v>69</v>
@@ -18956,10 +18923,10 @@
         <v>516</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>742</v>
+        <v>814</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>90</v>
@@ -18980,7 +18947,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="107" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="N20" s="84" t="s">
         <v>77</v>
@@ -20003,7 +19970,7 @@
     </row>
     <row r="21" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="65" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>69</v>
@@ -20015,10 +19982,10 @@
         <v>516</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>746</v>
+        <v>815</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>90</v>
@@ -20039,7 +20006,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="107" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="N21" s="84" t="s">
         <v>77</v>
@@ -21062,7 +21029,7 @@
     </row>
     <row r="22" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>69</v>
@@ -21074,10 +21041,10 @@
         <v>516</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>749</v>
+        <v>816</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>90</v>
@@ -21098,7 +21065,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="107" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="N22" s="84" t="s">
         <v>77</v>
@@ -22121,7 +22088,7 @@
     </row>
     <row r="23" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>69</v>
@@ -22133,10 +22100,10 @@
         <v>516</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>752</v>
+        <v>817</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>90</v>
@@ -22157,7 +22124,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="107" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="N23" s="84" t="s">
         <v>77</v>
@@ -23180,7 +23147,7 @@
     </row>
     <row r="24" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="B24" s="66" t="s">
         <v>69</v>
@@ -23192,10 +23159,10 @@
         <v>516</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>755</v>
+        <v>818</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>735</v>
+        <v>489</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>90</v>
@@ -23216,7 +23183,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="107" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="N24" s="84" t="s">
         <v>77</v>
@@ -24239,7 +24206,7 @@
     </row>
     <row r="25" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>69</v>
@@ -24251,10 +24218,10 @@
         <v>516</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>758</v>
+        <v>819</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>90</v>
@@ -24275,7 +24242,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="107" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="N25" s="84" t="s">
         <v>77</v>
@@ -25298,7 +25265,7 @@
     </row>
     <row r="26" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="65" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
       <c r="B26" s="66" t="s">
         <v>69</v>
@@ -25310,10 +25277,10 @@
         <v>516</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>761</v>
+        <v>820</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>90</v>
@@ -25334,7 +25301,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="107" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="N26" s="84" t="s">
         <v>77</v>
@@ -26357,7 +26324,7 @@
     </row>
     <row r="27" spans="1:1028" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="65" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>69</v>
@@ -26369,10 +26336,10 @@
         <v>516</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>764</v>
+        <v>821</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G27" s="68" t="s">
         <v>90</v>
@@ -26393,7 +26360,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="107" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="N27" s="84" t="s">
         <v>77</v>
@@ -26427,7 +26394,7 @@
     </row>
     <row r="28" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>69</v>
@@ -26439,10 +26406,10 @@
         <v>516</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>767</v>
+        <v>822</v>
       </c>
       <c r="F28" s="67" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="G28" s="68" t="s">
         <v>90</v>
@@ -26463,7 +26430,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="107" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="N28" s="84" t="s">
         <v>77</v>
@@ -27486,7 +27453,7 @@
     </row>
     <row r="29" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="B29" s="66" t="s">
         <v>69</v>
@@ -27498,10 +27465,10 @@
         <v>516</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>770</v>
+        <v>823</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G29" s="68" t="s">
         <v>90</v>
@@ -27522,7 +27489,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="107" t="s">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="N29" s="84" t="s">
         <v>77</v>
@@ -28545,7 +28512,7 @@
     </row>
     <row r="30" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="B30" s="66" t="s">
         <v>69</v>
@@ -28557,10 +28524,10 @@
         <v>516</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>773</v>
+        <v>824</v>
       </c>
       <c r="F30" s="67" t="s">
-        <v>735</v>
+        <v>489</v>
       </c>
       <c r="G30" s="68" t="s">
         <v>90</v>
@@ -28581,7 +28548,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="107" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="N30" s="84" t="s">
         <v>77</v>
@@ -29604,7 +29571,7 @@
     </row>
     <row r="31" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="65" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>69</v>
@@ -29616,10 +29583,10 @@
         <v>516</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>776</v>
+        <v>825</v>
       </c>
       <c r="F31" s="67" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="G31" s="68" t="s">
         <v>90</v>
@@ -29640,7 +29607,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>777</v>
+        <v>739</v>
       </c>
       <c r="N31" s="84" t="s">
         <v>77</v>
@@ -30663,7 +30630,7 @@
     </row>
     <row r="32" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="65" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>69</v>
@@ -30675,10 +30642,10 @@
         <v>516</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>779</v>
+        <v>826</v>
       </c>
       <c r="F32" s="67" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="G32" s="68" t="s">
         <v>90</v>
@@ -30699,7 +30666,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="107" t="s">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="N32" s="84" t="s">
         <v>77</v>
@@ -31722,7 +31689,7 @@
     </row>
     <row r="33" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="65" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B33" s="66" t="s">
         <v>69</v>
@@ -31734,10 +31701,10 @@
         <v>516</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>782</v>
+        <v>827</v>
       </c>
       <c r="F33" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G33" s="68" t="s">
         <v>90</v>
@@ -31758,7 +31725,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="107" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="N33" s="84" t="s">
         <v>77</v>
@@ -32781,7 +32748,7 @@
     </row>
     <row r="34" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="65" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B34" s="66" t="s">
         <v>69</v>
@@ -32793,10 +32760,10 @@
         <v>516</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="F34" s="67" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="G34" s="68" t="s">
         <v>90</v>
@@ -32817,7 +32784,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="107" t="s">
-        <v>786</v>
+        <v>742</v>
       </c>
       <c r="N34" s="84" t="s">
         <v>77</v>
@@ -33852,10 +33819,10 @@
         <v>516</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="F35" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G35" s="68" t="s">
         <v>90</v>
@@ -33876,7 +33843,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="107" t="s">
-        <v>789</v>
+        <v>743</v>
       </c>
       <c r="N35" s="84" t="s">
         <v>77</v>
@@ -34899,7 +34866,7 @@
     </row>
     <row r="36" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="65" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B36" s="66" t="s">
         <v>69</v>
@@ -34911,10 +34878,10 @@
         <v>516</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="F36" s="67" t="s">
-        <v>735</v>
+        <v>489</v>
       </c>
       <c r="G36" s="68" t="s">
         <v>90</v>
@@ -34935,7 +34902,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>792</v>
+        <v>744</v>
       </c>
       <c r="N36" s="84" t="s">
         <v>77</v>
@@ -34969,7 +34936,7 @@
     </row>
     <row r="37" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="65" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B37" s="66" t="s">
         <v>69</v>
@@ -34981,10 +34948,10 @@
         <v>516</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>794</v>
+        <v>831</v>
       </c>
       <c r="F37" s="67" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="G37" s="68" t="s">
         <v>90</v>
@@ -35005,7 +34972,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="107" t="s">
-        <v>795</v>
+        <v>745</v>
       </c>
       <c r="N37" s="84" t="s">
         <v>77</v>
@@ -35039,7 +35006,7 @@
     </row>
     <row r="38" spans="1:1028" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="65" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>69</v>
@@ -35051,10 +35018,10 @@
         <v>516</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="F38" s="67" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="G38" s="68" t="s">
         <v>90</v>
@@ -35075,7 +35042,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="107" t="s">
-        <v>798</v>
+        <v>746</v>
       </c>
       <c r="N38" s="84" t="s">
         <v>77</v>
@@ -35109,7 +35076,7 @@
     </row>
     <row r="39" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="65" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>69</v>
@@ -35121,10 +35088,10 @@
         <v>516</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="F39" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G39" s="68" t="s">
         <v>90</v>
@@ -35145,7 +35112,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="107" t="s">
-        <v>801</v>
+        <v>747</v>
       </c>
       <c r="N39" s="84" t="s">
         <v>77</v>
@@ -36168,7 +36135,7 @@
     </row>
     <row r="40" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="65" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="B40" s="66" t="s">
         <v>69</v>
@@ -36180,10 +36147,10 @@
         <v>516</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="F40" s="67" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="G40" s="68" t="s">
         <v>90</v>
@@ -36204,7 +36171,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="107" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
       <c r="N40" s="84" t="s">
         <v>77</v>
@@ -37227,7 +37194,7 @@
     </row>
     <row r="41" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="65" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="B41" s="66" t="s">
         <v>69</v>
@@ -37239,10 +37206,10 @@
         <v>516</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="F41" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G41" s="68" t="s">
         <v>90</v>
@@ -37263,7 +37230,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="107" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="N41" s="84" t="s">
         <v>77</v>
@@ -38286,7 +38253,7 @@
     </row>
     <row r="42" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="65" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>69</v>
@@ -38298,10 +38265,10 @@
         <v>516</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="F42" s="67" t="s">
-        <v>735</v>
+        <v>489</v>
       </c>
       <c r="G42" s="68" t="s">
         <v>90</v>
@@ -38322,7 +38289,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="107" t="s">
-        <v>810</v>
+        <v>750</v>
       </c>
       <c r="N42" s="84" t="s">
         <v>77</v>
@@ -39345,7 +39312,7 @@
     </row>
     <row r="43" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="65" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="B43" s="66" t="s">
         <v>69</v>
@@ -39357,10 +39324,10 @@
         <v>516</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="F43" s="67" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="G43" s="68" t="s">
         <v>90</v>
@@ -39381,7 +39348,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="107" t="s">
-        <v>813</v>
+        <v>751</v>
       </c>
       <c r="N43" s="84" t="s">
         <v>77</v>
@@ -40404,7 +40371,7 @@
     </row>
     <row r="44" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="65" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>69</v>
@@ -40416,10 +40383,10 @@
         <v>516</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="F44" s="67" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="G44" s="68" t="s">
         <v>90</v>
@@ -40440,7 +40407,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="107" t="s">
-        <v>816</v>
+        <v>752</v>
       </c>
       <c r="N44" s="84" t="s">
         <v>77</v>
@@ -41463,7 +41430,7 @@
     </row>
     <row r="45" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="65" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="B45" s="66" t="s">
         <v>69</v>
@@ -41475,10 +41442,10 @@
         <v>516</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
       <c r="F45" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G45" s="68" t="s">
         <v>90</v>
@@ -41499,7 +41466,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="107" t="s">
-        <v>819</v>
+        <v>753</v>
       </c>
       <c r="N45" s="84" t="s">
         <v>77</v>
@@ -42522,7 +42489,7 @@
     </row>
     <row r="46" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>69</v>
@@ -42534,10 +42501,10 @@
         <v>516</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="F46" s="67" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="G46" s="68" t="s">
         <v>90</v>
@@ -42558,7 +42525,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="107" t="s">
-        <v>822</v>
+        <v>754</v>
       </c>
       <c r="N46" s="84" t="s">
         <v>77</v>
@@ -43581,7 +43548,7 @@
     </row>
     <row r="47" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="65" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>69</v>
@@ -43593,10 +43560,10 @@
         <v>516</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="F47" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G47" s="68" t="s">
         <v>90</v>
@@ -43617,7 +43584,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="107" t="s">
-        <v>825</v>
+        <v>755</v>
       </c>
       <c r="N47" s="84" t="s">
         <v>77</v>
@@ -44640,7 +44607,7 @@
     </row>
     <row r="48" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="65" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="B48" s="66" t="s">
         <v>69</v>
@@ -44652,10 +44619,10 @@
         <v>516</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="F48" s="67" t="s">
-        <v>735</v>
+        <v>489</v>
       </c>
       <c r="G48" s="68" t="s">
         <v>90</v>
@@ -44676,7 +44643,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="107" t="s">
-        <v>828</v>
+        <v>756</v>
       </c>
       <c r="N48" s="84" t="s">
         <v>77</v>
@@ -45699,7 +45666,7 @@
     </row>
     <row r="49" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="65" t="s">
-        <v>829</v>
+        <v>801</v>
       </c>
       <c r="B49" s="66" t="s">
         <v>69</v>
@@ -45711,10 +45678,10 @@
         <v>516</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="F49" s="67" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="G49" s="68" t="s">
         <v>90</v>
@@ -45735,7 +45702,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="107" t="s">
-        <v>831</v>
+        <v>757</v>
       </c>
       <c r="N49" s="84" t="s">
         <v>77</v>
@@ -46758,7 +46725,7 @@
     </row>
     <row r="50" spans="1:1028" s="78" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="77" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="B50" s="66" t="s">
         <v>69</v>
@@ -46770,10 +46737,10 @@
         <v>516</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>833</v>
+        <v>844</v>
       </c>
       <c r="F50" s="67" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="G50" s="68" t="s">
         <v>90</v>
@@ -46794,7 +46761,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="107" t="s">
-        <v>834</v>
+        <v>758</v>
       </c>
       <c r="N50" s="84" t="s">
         <v>77</v>
@@ -46828,7 +46795,7 @@
     </row>
     <row r="51" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="77" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="B51" s="66" t="s">
         <v>69</v>
@@ -46840,10 +46807,10 @@
         <v>516</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="F51" s="67" t="s">
-        <v>212</v>
+        <v>489</v>
       </c>
       <c r="G51" s="68" t="s">
         <v>90</v>
@@ -46864,7 +46831,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="107" t="s">
-        <v>837</v>
+        <v>759</v>
       </c>
       <c r="N51" s="84" t="s">
         <v>77</v>
@@ -47887,7 +47854,7 @@
     </row>
     <row r="52" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="77" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="B52" s="66" t="s">
         <v>69</v>
@@ -47899,10 +47866,10 @@
         <v>516</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
       <c r="F52" s="67" t="s">
-        <v>728</v>
+        <v>489</v>
       </c>
       <c r="G52" s="68" t="s">
         <v>90</v>
@@ -47923,7 +47890,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="107" t="s">
-        <v>840</v>
+        <v>760</v>
       </c>
       <c r="N52" s="84" t="s">
         <v>77</v>
@@ -48946,7 +48913,7 @@
     </row>
     <row r="53" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="77" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="B53" s="66" t="s">
         <v>69</v>
@@ -48958,10 +48925,10 @@
         <v>516</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="F53" s="67" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="G53" s="68" t="s">
         <v>90</v>
@@ -48982,7 +48949,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="107" t="s">
-        <v>843</v>
+        <v>761</v>
       </c>
       <c r="N53" s="84" t="s">
         <v>77</v>
@@ -50005,7 +49972,7 @@
     </row>
     <row r="54" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="77" t="s">
-        <v>844</v>
+        <v>806</v>
       </c>
       <c r="B54" s="66" t="s">
         <v>69</v>
@@ -50017,10 +49984,10 @@
         <v>516</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F54" s="67" t="s">
-        <v>735</v>
+        <v>489</v>
       </c>
       <c r="G54" s="68" t="s">
         <v>90</v>
@@ -50041,7 +50008,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="107" t="s">
-        <v>846</v>
+        <v>762</v>
       </c>
       <c r="N54" s="84" t="s">
         <v>77</v>
@@ -51064,7 +51031,7 @@
     </row>
     <row r="55" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="77" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
       <c r="B55" s="66" t="s">
         <v>69</v>
@@ -51076,10 +51043,10 @@
         <v>516</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F55" s="67" t="s">
-        <v>739</v>
+        <v>489</v>
       </c>
       <c r="G55" s="68" t="s">
         <v>90</v>
@@ -51100,7 +51067,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="107" t="s">
-        <v>849</v>
+        <v>763</v>
       </c>
       <c r="N55" s="84" t="s">
         <v>77</v>
@@ -52123,7 +52090,7 @@
     </row>
     <row r="56" spans="1:1028" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="77" t="s">
-        <v>850</v>
+        <v>808</v>
       </c>
       <c r="B56" s="66" t="s">
         <v>69</v>
@@ -52135,10 +52102,10 @@
         <v>516</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F56" s="67" t="s">
-        <v>743</v>
+        <v>603</v>
       </c>
       <c r="G56" s="68" t="s">
         <v>90</v>
@@ -52159,7 +52126,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="107" t="s">
-        <v>852</v>
+        <v>764</v>
       </c>
       <c r="N56" s="84" t="s">
         <v>77</v>
@@ -72333,6 +72300,7 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="AH9:AL9"/>
   </mergeCells>
+  <phoneticPr fontId="41" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15:O394" xr:uid="{19465EDB-9F0A-D648-800B-EA415E10A078}">
       <formula1>#REF!</formula1>
